--- a/metrics/MAPE/average & upto/Edema macular diabético.xlsx
+++ b/metrics/MAPE/average & upto/Edema macular diabético.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4741424186489.39</v>
+        <v>5050511004645.943</v>
       </c>
       <c r="C3" t="n">
-        <v>4626677477825.739</v>
+        <v>4990052883466.417</v>
       </c>
       <c r="D3" t="n">
-        <v>4927065456401.215</v>
+        <v>5356225242805.234</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4705537797683.033</v>
+        <v>4800069426771.965</v>
       </c>
       <c r="C4" t="n">
-        <v>4581193979324.693</v>
+        <v>4602116584563.736</v>
       </c>
       <c r="D4" t="n">
-        <v>4716945216237.328</v>
+        <v>4535236091591.721</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255451502952318.4</v>
+        <v>200968425382797.9</v>
       </c>
       <c r="C5" t="n">
-        <v>247083386012970</v>
+        <v>197848106303898.7</v>
       </c>
       <c r="D5" t="n">
-        <v>197190968919462.4</v>
+        <v>158373220106048.9</v>
       </c>
     </row>
   </sheetData>
